--- a/Test Reports/26_test.xlsx
+++ b/Test Reports/26_test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,7 +530,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -539,22 +539,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08-03-2024</t>
+          <t>15-03-2024</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3625.5656</v>
+        <v>25.69</v>
       </c>
       <c r="E2" t="n">
-        <v>121.56956</v>
+        <v>226.56</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>jkajsdkjasd</t>
+          <t>asdkjklasjdl</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -562,125 +562,46 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>26asd56asd</t>
+          <t>asdkjasld</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>9865232685</t>
+          <t>9896532265</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="O2" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R2" t="n">
+        <v>25</v>
+      </c>
+      <c r="S2" t="n">
         <v>30</v>
       </c>
-      <c r="S2" t="n">
-        <v>40</v>
-      </c>
       <c r="T2" t="n">
-        <v>0.4674628352422071</v>
+        <v>0.47298236733493</v>
       </c>
       <c r="U2" t="inlineStr">
-        <is>
-          <t>Millets(Pearl Millet, Sorghum), Maize, Soybean, Groundnut</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>183</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>08-03-2024</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3625.5656</v>
-      </c>
-      <c r="E3" t="n">
-        <v>121.56956</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>jkajsdkjasd</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>6</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>33</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>26asd56asd</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>9865232685</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>200</v>
-      </c>
-      <c r="N3" t="n">
-        <v>99</v>
-      </c>
-      <c r="O3" t="n">
-        <v>250</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>40</v>
-      </c>
-      <c r="R3" t="n">
-        <v>30</v>
-      </c>
-      <c r="S3" t="n">
-        <v>40</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.4674628352422071</v>
-      </c>
-      <c r="U3" t="inlineStr">
         <is>
           <t>Millets(Pearl Millet, Sorghum), Maize, Soybean, Groundnut</t>
         </is>

--- a/Test Reports/26_test.xlsx
+++ b/Test Reports/26_test.xlsx
@@ -424,186 +424,188 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Test ID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Test ID</t>
+          <t>Collection Date</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Sample Collection Date</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Area (ha)</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Area (ha)</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Address</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Address</t>
+          <t>Mobile No.</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Mobile No.</t>
+          <t>Soil pH</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Soil pH</t>
+          <t>Nitrogen</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Nitrogen</t>
+          <t>Phosphorus</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Phosphorus</t>
+          <t>Potassium</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Potassium</t>
+          <t>Electrical Conductivity</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Electrical Conductivity</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Temperature</t>
+          <t>Moisture</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Moisture</t>
+          <t>Humidity</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Humidity</t>
+          <t>Soil Health Score</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>Soil Health Score</t>
+          <t>Recommendations</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>Crop Recommendations</t>
+          <t>Fertilizer Recommendation</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>58</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>15-03-2024</t>
-        </is>
+          <t>12-04-2024</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
       </c>
       <c r="D2" t="n">
-        <v>25.69</v>
-      </c>
-      <c r="E2" t="n">
-        <v>226.56</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>asdkjklasjdl</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+        <v>265</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>asdjhasjkdh</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>25</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>32</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>54</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>asjdhkjasd</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>asdkjasld</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>9896532265</t>
-        </is>
+          <t>9984564654</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="O2" t="n">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="R2" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="S2" t="n">
-        <v>30</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.47298236733493</v>
+        <v>0.6128933149770953</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Grow vegetables (tomato, brinjal, chili), fruits (mango, banana, citrus), and cash crops (sugarcane, tobacco).</t>
+        </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Millets(Pearl Millet, Sorghum), Maize, Soybean, Groundnut</t>
+          <t>Apply organic amendments like compost (1-2 tonnes/ha) or vermicompost (0.5-1 tonne/ha). Follow integrated nutrient management practices. Apply chemical fertilizers like urea (0.08-0.12 tonnes/ha), single superphosphate (0.06-0.09 tonnes/ha), and muriate of potash (0.04-0.06 tonnes/ha) as per soil test recommendations and crop requirements.</t>
         </is>
       </c>
     </row>
